--- a/results/sat_results.xlsx
+++ b/results/sat_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Hoc_hanh_met_moi\KLTN\demo\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{326FCE28-2917-42AC-BD59-46E22963DE0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FF4FF6A-A32B-4541-8A17-42F00C692FAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="42">
   <si>
     <t>m</t>
   </si>
@@ -96,51 +96,6 @@
     <t>0.016 s</t>
   </si>
   <si>
-    <t>0.188 s</t>
-  </si>
-  <si>
-    <t>0.135 s</t>
-  </si>
-  <si>
-    <t>1.157 s</t>
-  </si>
-  <si>
-    <t>3.127 s</t>
-  </si>
-  <si>
-    <t>0.391 s</t>
-  </si>
-  <si>
-    <t>2.203 s</t>
-  </si>
-  <si>
-    <t>1.314 s</t>
-  </si>
-  <si>
-    <t>6.855 s</t>
-  </si>
-  <si>
-    <t>3.411 s</t>
-  </si>
-  <si>
-    <t>3.828 s</t>
-  </si>
-  <si>
-    <t>14.505 s</t>
-  </si>
-  <si>
-    <t>5.158 s</t>
-  </si>
-  <si>
-    <t>18.069 s</t>
-  </si>
-  <si>
-    <t>16.659 s</t>
-  </si>
-  <si>
-    <t>30.163 s</t>
-  </si>
-  <si>
     <t>≤ 235</t>
   </si>
   <si>
@@ -150,10 +105,52 @@
     <t>Instance</t>
   </si>
   <si>
-    <t>≤ 325</t>
-  </si>
-  <si>
     <t>≤ 103</t>
+  </si>
+  <si>
+    <t>≤ 315</t>
+  </si>
+  <si>
+    <t>0.042 s</t>
+  </si>
+  <si>
+    <t>0.094 s</t>
+  </si>
+  <si>
+    <t>0.423 s</t>
+  </si>
+  <si>
+    <t>0.439 s</t>
+  </si>
+  <si>
+    <t>2.616 s</t>
+  </si>
+  <si>
+    <t>0.658 s</t>
+  </si>
+  <si>
+    <t>3.534 s</t>
+  </si>
+  <si>
+    <t>3.688 s</t>
+  </si>
+  <si>
+    <t>4.079 s</t>
+  </si>
+  <si>
+    <t>14.258 s</t>
+  </si>
+  <si>
+    <t>5.958 s</t>
+  </si>
+  <si>
+    <t>19.940 s</t>
+  </si>
+  <si>
+    <t>21.583 s</t>
+  </si>
+  <si>
+    <t>37.387 s</t>
   </si>
 </sst>
 </file>
@@ -547,7 +544,7 @@
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -557,7 +554,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>13</v>
@@ -657,7 +654,7 @@
         <v>34</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -692,7 +689,7 @@
         <v>16</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -762,7 +759,7 @@
         <v>17</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -832,7 +829,7 @@
         <v>313</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -867,7 +864,7 @@
         <v>7</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -902,7 +899,7 @@
         <v>5</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -937,7 +934,7 @@
         <v>149</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -972,7 +969,7 @@
         <v>260</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -1007,7 +1004,7 @@
         <v>1606</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -1042,7 +1039,7 @@
         <v>267</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -1065,17 +1062,17 @@
         <v>1580546</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="H15" s="6"/>
       <c r="I15" s="6">
-        <v>21561</v>
+        <v>22932</v>
       </c>
       <c r="J15" s="6">
         <v>11844</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -1098,7 +1095,7 @@
         <v>6514975</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="H16" s="6"/>
       <c r="I16" s="6">
@@ -1108,7 +1105,7 @@
         <v>298</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
@@ -1131,17 +1128,17 @@
         <v>124812</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="H17" s="6"/>
       <c r="I17" s="6">
-        <v>140924</v>
+        <v>74341</v>
       </c>
       <c r="J17" s="6">
         <v>40151</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
@@ -1176,7 +1173,7 @@
         <v>76</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
@@ -1211,7 +1208,7 @@
         <v>324</v>
       </c>
       <c r="K19" s="6" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
@@ -1246,7 +1243,7 @@
         <v>262</v>
       </c>
       <c r="K20" s="6" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
@@ -1281,7 +1278,7 @@
         <v>22</v>
       </c>
       <c r="K21" s="6" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
@@ -1316,7 +1313,7 @@
         <v>155</v>
       </c>
       <c r="K22" s="6" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/results/sat_results.xlsx
+++ b/results/sat_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Hoc_hanh_met_moi\KLTN\demo\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78468E37-1362-4BF5-A3E4-1B8BECCF2AB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7825DC4A-9887-4F05-9E96-E2C6C9D2FF3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="43">
   <si>
     <t>m</t>
   </si>
@@ -120,37 +120,40 @@
     <t>0,344 s</t>
   </si>
   <si>
-    <t>1,782 s</t>
-  </si>
-  <si>
-    <t>0,578 s</t>
-  </si>
-  <si>
-    <t>2,939 s</t>
-  </si>
-  <si>
-    <t>3,127 s</t>
-  </si>
-  <si>
-    <t>3,407 s</t>
-  </si>
-  <si>
     <t>≤ 101</t>
   </si>
   <si>
-    <t>12,086 s</t>
-  </si>
-  <si>
-    <t>5,611 s</t>
-  </si>
-  <si>
-    <t>15,398 s</t>
-  </si>
-  <si>
-    <t>20,237 s</t>
-  </si>
-  <si>
-    <t>34,814 s</t>
+    <t>0,009 s</t>
+  </si>
+  <si>
+    <t>0,313 s</t>
+  </si>
+  <si>
+    <t>1,292 s</t>
+  </si>
+  <si>
+    <t>2,417 s</t>
+  </si>
+  <si>
+    <t>2,547 s</t>
+  </si>
+  <si>
+    <t>3,121 s</t>
+  </si>
+  <si>
+    <t>9,996 s</t>
+  </si>
+  <si>
+    <t>5,230 s</t>
+  </si>
+  <si>
+    <t>15,978 s</t>
+  </si>
+  <si>
+    <t>14,772 s</t>
+  </si>
+  <si>
+    <t>28,626 s</t>
   </si>
 </sst>
 </file>
@@ -618,7 +621,7 @@
         <v>126</v>
       </c>
       <c r="F2" s="5">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="G2" s="5">
         <v>164</v>
@@ -650,10 +653,10 @@
         <v>18</v>
       </c>
       <c r="E3" s="5">
-        <v>269</v>
-      </c>
-      <c r="F3" s="5">
-        <v>2934</v>
+        <v>266</v>
+      </c>
+      <c r="F3" s="6">
+        <v>2631</v>
       </c>
       <c r="G3" s="5">
         <v>54</v>
@@ -662,13 +665,13 @@
         <v>21</v>
       </c>
       <c r="I3" s="5">
+        <v>40</v>
+      </c>
+      <c r="J3" s="5">
         <v>39</v>
       </c>
-      <c r="J3" s="5">
-        <v>22</v>
-      </c>
       <c r="K3" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -685,10 +688,10 @@
         <v>20</v>
       </c>
       <c r="E4" s="5">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F4" s="5">
-        <v>2824</v>
+        <v>2603</v>
       </c>
       <c r="G4" s="5">
         <v>146</v>
@@ -697,13 +700,13 @@
         <v>21</v>
       </c>
       <c r="I4" s="5">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="J4" s="5">
         <v>3</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -723,7 +726,7 @@
         <v>180</v>
       </c>
       <c r="F5" s="5">
-        <v>668</v>
+        <v>691</v>
       </c>
       <c r="G5" s="5">
         <v>173</v>
@@ -732,7 +735,7 @@
         <v>21</v>
       </c>
       <c r="I5" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J5" s="5">
         <v>1</v>
@@ -755,10 +758,10 @@
         <v>18</v>
       </c>
       <c r="E6" s="5">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="F6" s="5">
-        <v>4312</v>
+        <v>3824</v>
       </c>
       <c r="G6" s="5">
         <v>47</v>
@@ -767,10 +770,10 @@
         <v>21</v>
       </c>
       <c r="I6" s="5">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="J6" s="5">
-        <v>149</v>
+        <v>111</v>
       </c>
       <c r="K6" s="5" t="s">
         <v>28</v>
@@ -790,10 +793,10 @@
         <v>7</v>
       </c>
       <c r="E7" s="5">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F7" s="5">
-        <v>2053</v>
+        <v>1797</v>
       </c>
       <c r="G7" s="5">
         <v>166</v>
@@ -802,13 +805,13 @@
         <v>21</v>
       </c>
       <c r="I7" s="5">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J7" s="5">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -825,10 +828,10 @@
         <v>21</v>
       </c>
       <c r="E8" s="5">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="F8" s="5">
-        <v>9604</v>
+        <v>8524</v>
       </c>
       <c r="G8" s="5">
         <v>57</v>
@@ -837,10 +840,10 @@
         <v>21</v>
       </c>
       <c r="I8" s="5">
-        <v>465</v>
+        <v>522</v>
       </c>
       <c r="J8" s="5">
-        <v>283</v>
+        <v>316</v>
       </c>
       <c r="K8" s="5" t="s">
         <v>29</v>
@@ -860,10 +863,10 @@
         <v>48</v>
       </c>
       <c r="E9" s="5">
-        <v>1103</v>
+        <v>1100</v>
       </c>
       <c r="F9" s="5">
-        <v>28234</v>
+        <v>22421</v>
       </c>
       <c r="G9" s="5">
         <v>111</v>
@@ -875,10 +878,10 @@
         <v>7</v>
       </c>
       <c r="J9" s="5">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -895,10 +898,10 @@
         <v>94</v>
       </c>
       <c r="E10" s="5">
-        <v>2092</v>
+        <v>2090</v>
       </c>
       <c r="F10" s="5">
-        <v>98298</v>
+        <v>66451</v>
       </c>
       <c r="G10" s="5">
         <v>71</v>
@@ -907,13 +910,13 @@
         <v>21</v>
       </c>
       <c r="I10" s="5">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J10" s="5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -930,10 +933,10 @@
         <v>14</v>
       </c>
       <c r="E11" s="5">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="F11" s="5">
-        <v>22426</v>
+        <v>6348</v>
       </c>
       <c r="G11" s="5">
         <v>225</v>
@@ -942,13 +945,13 @@
         <v>21</v>
       </c>
       <c r="I11" s="5">
-        <v>367</v>
+        <v>383</v>
       </c>
       <c r="J11" s="5">
-        <v>92</v>
+        <v>148</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -965,10 +968,10 @@
         <v>39</v>
       </c>
       <c r="E12" s="5">
-        <v>1760</v>
+        <v>1701</v>
       </c>
       <c r="F12" s="5">
-        <v>56778</v>
+        <v>41844</v>
       </c>
       <c r="G12" s="5">
         <v>84</v>
@@ -977,13 +980,13 @@
         <v>21</v>
       </c>
       <c r="I12" s="5">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="J12" s="5">
-        <v>492</v>
+        <v>416</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -1000,10 +1003,10 @@
         <v>14</v>
       </c>
       <c r="E13" s="5">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="F13" s="5">
-        <v>43907</v>
+        <v>23119</v>
       </c>
       <c r="G13" s="5">
         <v>242</v>
@@ -1012,13 +1015,13 @@
         <v>21</v>
       </c>
       <c r="I13" s="5">
-        <v>1756</v>
+        <v>1766</v>
       </c>
       <c r="J13" s="5">
-        <v>1273</v>
+        <v>1564</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -1035,10 +1038,10 @@
         <v>32</v>
       </c>
       <c r="E14" s="5">
-        <v>1711</v>
+        <v>1700</v>
       </c>
       <c r="F14" s="5">
-        <v>68247</v>
+        <v>51680</v>
       </c>
       <c r="G14" s="5">
         <v>118</v>
@@ -1047,13 +1050,13 @@
         <v>21</v>
       </c>
       <c r="I14" s="5">
-        <v>375</v>
+        <v>397</v>
       </c>
       <c r="J14" s="5">
-        <v>198</v>
+        <v>292</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -1070,20 +1073,20 @@
         <v>138</v>
       </c>
       <c r="E15" s="5">
-        <v>7968</v>
+        <v>7952</v>
       </c>
       <c r="F15" s="5">
-        <v>1424177</v>
+        <v>1172526</v>
       </c>
       <c r="G15" s="5" t="s">
         <v>22</v>
       </c>
       <c r="H15" s="5"/>
       <c r="I15" s="5">
-        <v>15872</v>
+        <v>16759</v>
       </c>
       <c r="J15" s="5">
-        <v>3939</v>
+        <v>8516</v>
       </c>
       <c r="K15" s="5" t="s">
         <v>23</v>
@@ -1106,17 +1109,17 @@
         <v>19251</v>
       </c>
       <c r="F16" s="5">
-        <v>5199478</v>
+        <v>3757443</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H16" s="5"/>
       <c r="I16" s="5">
-        <v>1051</v>
+        <v>1319</v>
       </c>
       <c r="J16" s="5">
-        <v>560</v>
+        <v>957</v>
       </c>
       <c r="K16" s="5" t="s">
         <v>23</v>
@@ -1136,20 +1139,20 @@
         <v>25</v>
       </c>
       <c r="E17" s="5">
-        <v>1865</v>
+        <v>1856</v>
       </c>
       <c r="F17" s="5">
-        <v>122054</v>
+        <v>86438</v>
       </c>
       <c r="G17" s="5" t="s">
         <v>25</v>
       </c>
       <c r="H17" s="5"/>
       <c r="I17" s="5">
-        <v>106559</v>
+        <v>107836</v>
       </c>
       <c r="J17" s="5">
-        <v>53520</v>
+        <v>46648</v>
       </c>
       <c r="K17" s="5" t="s">
         <v>23</v>
@@ -1169,10 +1172,10 @@
         <v>47</v>
       </c>
       <c r="E18" s="5">
-        <v>2943</v>
+        <v>2929</v>
       </c>
       <c r="F18" s="5">
-        <v>246424</v>
+        <v>161357</v>
       </c>
       <c r="G18" s="5">
         <v>184</v>
@@ -1184,10 +1187,10 @@
         <v>76</v>
       </c>
       <c r="J18" s="5">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
@@ -1204,10 +1207,10 @@
         <v>25</v>
       </c>
       <c r="E19" s="5">
-        <v>1928</v>
+        <v>1920</v>
       </c>
       <c r="F19" s="5">
-        <v>135325</v>
+        <v>105942</v>
       </c>
       <c r="G19" s="5">
         <v>358</v>
@@ -1216,13 +1219,13 @@
         <v>21</v>
       </c>
       <c r="I19" s="5">
-        <v>350</v>
+        <v>315</v>
       </c>
       <c r="J19" s="5">
-        <v>350</v>
+        <v>152</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
@@ -1239,10 +1242,10 @@
         <v>47</v>
       </c>
       <c r="E20" s="5">
-        <v>3037</v>
+        <v>3030</v>
       </c>
       <c r="F20" s="5">
-        <v>232663</v>
+        <v>188048</v>
       </c>
       <c r="G20" s="5">
         <v>192</v>
@@ -1251,13 +1254,13 @@
         <v>21</v>
       </c>
       <c r="I20" s="5">
-        <v>418</v>
+        <v>440</v>
       </c>
       <c r="J20" s="5">
-        <v>306</v>
+        <v>89</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
@@ -1274,10 +1277,10 @@
         <v>40</v>
       </c>
       <c r="E21" s="5">
-        <v>3301</v>
+        <v>3290</v>
       </c>
       <c r="F21" s="5">
-        <v>417004</v>
+        <v>259699</v>
       </c>
       <c r="G21" s="5">
         <v>406</v>
@@ -1286,13 +1289,13 @@
         <v>21</v>
       </c>
       <c r="I21" s="5">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J21" s="5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
@@ -1309,10 +1312,10 @@
         <v>54</v>
       </c>
       <c r="E22" s="5">
-        <v>4107</v>
+        <v>4095</v>
       </c>
       <c r="F22" s="5">
-        <v>513564</v>
+        <v>334997</v>
       </c>
       <c r="G22" s="5">
         <v>276</v>
@@ -1321,13 +1324,13 @@
         <v>21</v>
       </c>
       <c r="I22" s="5">
-        <v>305</v>
+        <v>327</v>
       </c>
       <c r="J22" s="5">
-        <v>214</v>
+        <v>259</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/results/sat_results.xlsx
+++ b/results/sat_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Hoc_hanh_met_moi\KLTN\demo\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7825DC4A-9887-4F05-9E96-E2C6C9D2FF3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20D6CE84-948E-47F2-889F-696EA00A6CC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="42">
   <si>
     <t>m</t>
   </si>
@@ -93,67 +93,64 @@
     <t>Optimal</t>
   </si>
   <si>
-    <t>≤ 235</t>
-  </si>
-  <si>
     <t>≥ 3600 s</t>
   </si>
   <si>
     <t>Instance</t>
   </si>
   <si>
-    <t>≤ 315</t>
-  </si>
-  <si>
-    <t>0,016 s</t>
-  </si>
-  <si>
-    <t>0,031 s</t>
-  </si>
-  <si>
-    <t>0,063 s</t>
-  </si>
-  <si>
-    <t>0,328 s</t>
-  </si>
-  <si>
-    <t>0,344 s</t>
-  </si>
-  <si>
-    <t>≤ 101</t>
-  </si>
-  <si>
-    <t>0,009 s</t>
-  </si>
-  <si>
-    <t>0,313 s</t>
-  </si>
-  <si>
-    <t>1,292 s</t>
-  </si>
-  <si>
-    <t>2,417 s</t>
-  </si>
-  <si>
-    <t>2,547 s</t>
-  </si>
-  <si>
-    <t>3,121 s</t>
-  </si>
-  <si>
-    <t>9,996 s</t>
-  </si>
-  <si>
-    <t>5,230 s</t>
-  </si>
-  <si>
-    <t>15,978 s</t>
-  </si>
-  <si>
-    <t>14,772 s</t>
-  </si>
-  <si>
-    <t>28,626 s</t>
+    <t>0.016 s</t>
+  </si>
+  <si>
+    <t>0.031 s</t>
+  </si>
+  <si>
+    <t>≤ 231</t>
+  </si>
+  <si>
+    <t>≤ 100</t>
+  </si>
+  <si>
+    <t>0.047 s</t>
+  </si>
+  <si>
+    <t>0.234 s</t>
+  </si>
+  <si>
+    <t>0.329 s</t>
+  </si>
+  <si>
+    <t>1.188 s</t>
+  </si>
+  <si>
+    <t>0.203 s</t>
+  </si>
+  <si>
+    <t>1.469 s</t>
+  </si>
+  <si>
+    <t>1.5 s</t>
+  </si>
+  <si>
+    <t>2.703 s</t>
+  </si>
+  <si>
+    <t>2669.489 s</t>
+  </si>
+  <si>
+    <t>9.532 s</t>
+  </si>
+  <si>
+    <t>4.781 s</t>
+  </si>
+  <si>
+    <t>14.127 s</t>
+  </si>
+  <si>
+    <t>15.648 s</t>
+  </si>
+  <si>
+    <t>25.88 s</t>
   </si>
 </sst>
 </file>
@@ -171,6 +168,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
@@ -561,17 +559,18 @@
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:K22"/>
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>13</v>
@@ -636,7 +635,7 @@
         <v>2</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -665,13 +664,13 @@
         <v>21</v>
       </c>
       <c r="I3" s="5">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="J3" s="5">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -700,13 +699,13 @@
         <v>21</v>
       </c>
       <c r="I4" s="5">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="J4" s="5">
         <v>3</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -741,7 +740,7 @@
         <v>1</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -770,10 +769,10 @@
         <v>21</v>
       </c>
       <c r="I6" s="5">
-        <v>155</v>
+        <v>84</v>
       </c>
       <c r="J6" s="5">
-        <v>111</v>
+        <v>70</v>
       </c>
       <c r="K6" s="5" t="s">
         <v>28</v>
@@ -811,7 +810,7 @@
         <v>4</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -840,10 +839,10 @@
         <v>21</v>
       </c>
       <c r="I8" s="5">
-        <v>522</v>
+        <v>195</v>
       </c>
       <c r="J8" s="5">
-        <v>316</v>
+        <v>165</v>
       </c>
       <c r="K8" s="5" t="s">
         <v>29</v>
@@ -875,13 +874,13 @@
         <v>21</v>
       </c>
       <c r="I9" s="5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J9" s="5">
         <v>4</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -910,13 +909,13 @@
         <v>21</v>
       </c>
       <c r="I10" s="5">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J10" s="5">
         <v>8</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -945,13 +944,13 @@
         <v>21</v>
       </c>
       <c r="I11" s="5">
-        <v>383</v>
+        <v>174</v>
       </c>
       <c r="J11" s="5">
-        <v>148</v>
+        <v>85</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -980,13 +979,13 @@
         <v>21</v>
       </c>
       <c r="I12" s="5">
-        <v>552</v>
+        <v>133</v>
       </c>
       <c r="J12" s="5">
-        <v>416</v>
+        <v>102</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -1015,13 +1014,13 @@
         <v>21</v>
       </c>
       <c r="I13" s="5">
-        <v>1766</v>
+        <v>573</v>
       </c>
       <c r="J13" s="5">
-        <v>1564</v>
+        <v>567</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -1050,13 +1049,13 @@
         <v>21</v>
       </c>
       <c r="I14" s="5">
-        <v>397</v>
+        <v>163</v>
       </c>
       <c r="J14" s="5">
-        <v>292</v>
+        <v>137</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -1079,17 +1078,16 @@
         <v>1172526</v>
       </c>
       <c r="G15" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I15" s="5">
+        <v>4205</v>
+      </c>
+      <c r="J15" s="5">
+        <v>3658</v>
+      </c>
+      <c r="K15" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5">
-        <v>16759</v>
-      </c>
-      <c r="J15" s="5">
-        <v>8516</v>
-      </c>
-      <c r="K15" s="5" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -1106,23 +1104,23 @@
         <v>342</v>
       </c>
       <c r="E16" s="5">
-        <v>19251</v>
+        <v>19236</v>
       </c>
       <c r="F16" s="5">
         <v>3757443</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="H16" s="5"/>
       <c r="I16" s="5">
-        <v>1319</v>
+        <v>482</v>
       </c>
       <c r="J16" s="5">
-        <v>957</v>
+        <v>460</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
@@ -1144,18 +1142,20 @@
       <c r="F17" s="5">
         <v>86438</v>
       </c>
-      <c r="G17" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="H17" s="5"/>
+      <c r="G17" s="5">
+        <v>315</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="I17" s="5">
-        <v>107836</v>
+        <v>23766</v>
       </c>
       <c r="J17" s="5">
-        <v>46648</v>
+        <v>9640</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
@@ -1184,13 +1184,13 @@
         <v>21</v>
       </c>
       <c r="I18" s="5">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="J18" s="5">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
@@ -1219,13 +1219,13 @@
         <v>21</v>
       </c>
       <c r="I19" s="5">
-        <v>315</v>
+        <v>128</v>
       </c>
       <c r="J19" s="5">
-        <v>152</v>
+        <v>128</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
@@ -1254,13 +1254,13 @@
         <v>21</v>
       </c>
       <c r="I20" s="5">
-        <v>440</v>
+        <v>136</v>
       </c>
       <c r="J20" s="5">
-        <v>89</v>
+        <v>116</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
@@ -1289,13 +1289,13 @@
         <v>21</v>
       </c>
       <c r="I21" s="5">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J21" s="5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
@@ -1324,13 +1324,13 @@
         <v>21</v>
       </c>
       <c r="I22" s="5">
-        <v>327</v>
+        <v>150</v>
       </c>
       <c r="J22" s="5">
-        <v>259</v>
+        <v>145</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/results/sat_results.xlsx
+++ b/results/sat_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Hoc_hanh_met_moi\KLTN\demo\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20D6CE84-948E-47F2-889F-696EA00A6CC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7259367A-AEA8-47A0-B1E9-4AB217C220A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="69">
   <si>
     <t>m</t>
   </si>
@@ -33,39 +33,6 @@
     <t>c</t>
   </si>
   <si>
-    <t>Mertens</t>
-  </si>
-  <si>
-    <t>Bowman</t>
-  </si>
-  <si>
-    <t>Jaeschke</t>
-  </si>
-  <si>
-    <t>Jackson</t>
-  </si>
-  <si>
-    <t>Mansoor</t>
-  </si>
-  <si>
-    <t>Mitchell</t>
-  </si>
-  <si>
-    <t>Roszieg</t>
-  </si>
-  <si>
-    <t>Heskiaoff</t>
-  </si>
-  <si>
-    <t>Buxey</t>
-  </si>
-  <si>
-    <t>Sawyer</t>
-  </si>
-  <si>
-    <t>Gunther</t>
-  </si>
-  <si>
     <t>n</t>
   </si>
   <si>
@@ -99,58 +66,172 @@
     <t>Instance</t>
   </si>
   <si>
+    <t>≤ 97</t>
+  </si>
+  <si>
+    <t>≤ 156</t>
+  </si>
+  <si>
+    <t>≤ 240</t>
+  </si>
+  <si>
+    <t>≤ 211</t>
+  </si>
+  <si>
+    <t>≤ 287</t>
+  </si>
+  <si>
+    <t>≤ 239</t>
+  </si>
+  <si>
+    <t>≤ 736</t>
+  </si>
+  <si>
+    <t>0.002 s</t>
+  </si>
+  <si>
+    <t>0.011 s</t>
+  </si>
+  <si>
+    <t>0.007 s</t>
+  </si>
+  <si>
     <t>0.016 s</t>
   </si>
   <si>
-    <t>0.031 s</t>
-  </si>
-  <si>
-    <t>≤ 231</t>
-  </si>
-  <si>
-    <t>≤ 100</t>
-  </si>
-  <si>
     <t>0.047 s</t>
   </si>
   <si>
-    <t>0.234 s</t>
-  </si>
-  <si>
-    <t>0.329 s</t>
-  </si>
-  <si>
-    <t>1.188 s</t>
-  </si>
-  <si>
-    <t>0.203 s</t>
-  </si>
-  <si>
-    <t>1.469 s</t>
-  </si>
-  <si>
-    <t>1.5 s</t>
-  </si>
-  <si>
-    <t>2.703 s</t>
-  </si>
-  <si>
-    <t>2669.489 s</t>
-  </si>
-  <si>
-    <t>9.532 s</t>
-  </si>
-  <si>
-    <t>4.781 s</t>
-  </si>
-  <si>
-    <t>14.127 s</t>
-  </si>
-  <si>
-    <t>15.648 s</t>
-  </si>
-  <si>
-    <t>25.88 s</t>
+    <t>0.062 s</t>
+  </si>
+  <si>
+    <t>0.156 s</t>
+  </si>
+  <si>
+    <t>0.125 s</t>
+  </si>
+  <si>
+    <t>0.344 s</t>
+  </si>
+  <si>
+    <t>0.518 s</t>
+  </si>
+  <si>
+    <t>0.797 s</t>
+  </si>
+  <si>
+    <t>59.332 s</t>
+  </si>
+  <si>
+    <t>2353.854 s</t>
+  </si>
+  <si>
+    <t>865.509 s</t>
+  </si>
+  <si>
+    <t>2.860 s</t>
+  </si>
+  <si>
+    <t>365.896 s</t>
+  </si>
+  <si>
+    <t>0.691 s</t>
+  </si>
+  <si>
+    <t>4.657 s</t>
+  </si>
+  <si>
+    <t>0.516 s</t>
+  </si>
+  <si>
+    <t>2.142 s</t>
+  </si>
+  <si>
+    <t>mertens-1</t>
+  </si>
+  <si>
+    <t>mertens-2</t>
+  </si>
+  <si>
+    <t>bowman-1</t>
+  </si>
+  <si>
+    <t>jaeschke-1</t>
+  </si>
+  <si>
+    <t>jaeschke-2</t>
+  </si>
+  <si>
+    <t>jackson-1</t>
+  </si>
+  <si>
+    <t>jackson-2</t>
+  </si>
+  <si>
+    <t>mansoor-1</t>
+  </si>
+  <si>
+    <t>mansoor-2</t>
+  </si>
+  <si>
+    <t>mitchell-1</t>
+  </si>
+  <si>
+    <t>mitchell-2</t>
+  </si>
+  <si>
+    <t>roszieg-1</t>
+  </si>
+  <si>
+    <t>roszieg-2</t>
+  </si>
+  <si>
+    <t>roszieg-3</t>
+  </si>
+  <si>
+    <t>heskiaoff-1</t>
+  </si>
+  <si>
+    <t>heskiaoff-2</t>
+  </si>
+  <si>
+    <t>heskiaoff-3</t>
+  </si>
+  <si>
+    <t>buxey-1</t>
+  </si>
+  <si>
+    <t>buxey-2</t>
+  </si>
+  <si>
+    <t>buxey-3</t>
+  </si>
+  <si>
+    <t>buxey-4</t>
+  </si>
+  <si>
+    <t>sawyer-1</t>
+  </si>
+  <si>
+    <t>sawyer-2</t>
+  </si>
+  <si>
+    <t>sawyer-3</t>
+  </si>
+  <si>
+    <t>sawyer-4</t>
+  </si>
+  <si>
+    <t>gunther-1</t>
+  </si>
+  <si>
+    <t>gunther-2</t>
+  </si>
+  <si>
+    <t>gunther-3</t>
+  </si>
+  <si>
+    <t>warnecke-1</t>
   </si>
 </sst>
 </file>
@@ -205,12 +286,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="4">
@@ -255,7 +342,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -275,6 +362,22 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -556,24 +659,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
+      <selection activeCell="A2" sqref="A2:A30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -582,30 +685,30 @@
         <v>1</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="B2" s="5">
         <v>7</v>
@@ -626,21 +729,21 @@
         <v>164</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="I2" s="5">
-        <v>3</v>
+        <v>10</v>
+      </c>
+      <c r="I2" s="7">
+        <v>2</v>
       </c>
       <c r="J2" s="5">
         <v>2</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="B3" s="5">
         <v>7</v>
@@ -661,21 +764,21 @@
         <v>54</v>
       </c>
       <c r="H3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="7">
+        <v>11</v>
+      </c>
+      <c r="J3" s="5">
+        <v>10</v>
+      </c>
+      <c r="K3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="5">
-        <v>27</v>
-      </c>
-      <c r="J3" s="5">
-        <v>25</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="B4" s="5">
         <v>8</v>
@@ -696,21 +799,21 @@
         <v>146</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" s="5">
-        <v>21</v>
+        <v>10</v>
+      </c>
+      <c r="I4" s="7">
+        <v>11</v>
       </c>
       <c r="J4" s="5">
         <v>3</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="B5" s="5">
         <v>9</v>
@@ -731,21 +834,21 @@
         <v>173</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="I5" s="5">
-        <v>2</v>
+        <v>10</v>
+      </c>
+      <c r="I5" s="7">
+        <v>1</v>
       </c>
       <c r="J5" s="5">
         <v>1</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="B6" s="5">
         <v>9</v>
@@ -766,21 +869,21 @@
         <v>47</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="I6" s="5">
-        <v>84</v>
+        <v>10</v>
+      </c>
+      <c r="I6" s="7">
+        <v>24</v>
       </c>
       <c r="J6" s="5">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="B7" s="5">
         <v>11</v>
@@ -801,7 +904,7 @@
         <v>166</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="I7" s="5">
         <v>4</v>
@@ -810,12 +913,12 @@
         <v>4</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="B8" s="5">
         <v>11</v>
@@ -836,21 +939,21 @@
         <v>57</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="I8" s="5">
-        <v>195</v>
+        <v>10</v>
+      </c>
+      <c r="I8" s="7">
+        <v>33</v>
       </c>
       <c r="J8" s="5">
-        <v>165</v>
+        <v>28</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="B9" s="5">
         <v>11</v>
@@ -871,21 +974,21 @@
         <v>111</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="I9" s="5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J9" s="5">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5">
         <v>11</v>
@@ -906,21 +1009,21 @@
         <v>71</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="I10" s="5">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="I10" s="7">
+        <v>6</v>
       </c>
       <c r="J10" s="5">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="B11" s="5">
         <v>21</v>
@@ -935,27 +1038,27 @@
         <v>756</v>
       </c>
       <c r="F11" s="5">
-        <v>6348</v>
+        <v>7404</v>
       </c>
       <c r="G11" s="5">
         <v>225</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="I11" s="5">
-        <v>174</v>
+        <v>10</v>
+      </c>
+      <c r="I11" s="7">
+        <v>115</v>
       </c>
       <c r="J11" s="5">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="B12" s="5">
         <v>21</v>
@@ -976,21 +1079,21 @@
         <v>84</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="I12" s="5">
-        <v>133</v>
+        <v>10</v>
+      </c>
+      <c r="I12" s="7">
+        <v>46</v>
       </c>
       <c r="J12" s="5">
-        <v>102</v>
+        <v>41</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="B13" s="5">
         <v>25</v>
@@ -1005,27 +1108,27 @@
         <v>950</v>
       </c>
       <c r="F13" s="5">
-        <v>23119</v>
+        <v>24221</v>
       </c>
       <c r="G13" s="5">
         <v>242</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="I13" s="5">
-        <v>573</v>
+        <v>10</v>
+      </c>
+      <c r="I13" s="7">
+        <v>301</v>
       </c>
       <c r="J13" s="5">
-        <v>567</v>
+        <v>140</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="B14" s="5">
         <v>25</v>
@@ -1046,159 +1149,160 @@
         <v>118</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="I14" s="5">
-        <v>163</v>
+        <v>10</v>
+      </c>
+      <c r="I14" s="7">
+        <v>95</v>
       </c>
       <c r="J14" s="5">
-        <v>137</v>
+        <v>91</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="5">
-        <v>28</v>
-      </c>
-      <c r="C15" s="6">
-        <v>8</v>
-      </c>
-      <c r="D15" s="6">
-        <v>138</v>
-      </c>
-      <c r="E15" s="5">
-        <v>7952</v>
-      </c>
-      <c r="F15" s="5">
-        <v>1172526</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I15" s="5">
-        <v>4205</v>
-      </c>
-      <c r="J15" s="5">
-        <v>3658</v>
-      </c>
-      <c r="K15" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="9">
+        <v>25</v>
+      </c>
+      <c r="C15" s="10">
+        <v>6</v>
+      </c>
+      <c r="D15" s="10">
+        <v>25</v>
+      </c>
+      <c r="E15" s="9">
+        <v>1400</v>
+      </c>
+      <c r="F15" s="9">
+        <v>46296</v>
+      </c>
+      <c r="G15" s="9">
+        <v>135</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I15" s="9">
+        <v>2148</v>
+      </c>
+      <c r="J15" s="9">
+        <v>1755</v>
+      </c>
+      <c r="K15" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="B16" s="5">
         <v>28</v>
       </c>
       <c r="C16" s="6">
+        <v>8</v>
+      </c>
+      <c r="D16" s="6">
+        <v>138</v>
+      </c>
+      <c r="E16" s="5">
+        <v>7952</v>
+      </c>
+      <c r="F16" s="5">
+        <v>1172526</v>
+      </c>
+      <c r="G16" s="7">
+        <v>229</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I16" s="5">
+        <v>6490</v>
+      </c>
+      <c r="J16" s="5">
+        <v>4836</v>
+      </c>
+      <c r="K16" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" s="5">
+        <v>28</v>
+      </c>
+      <c r="C17" s="6">
         <v>3</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D17" s="6">
         <v>342</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E17" s="5">
         <v>19236</v>
       </c>
-      <c r="F16" s="5">
-        <v>3757443</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5">
-        <v>482</v>
-      </c>
-      <c r="J16" s="5">
-        <v>460</v>
-      </c>
-      <c r="K16" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17" s="5">
+      <c r="F17" s="5">
+        <v>3952575</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17" s="5"/>
+      <c r="I17" s="7">
+        <v>176</v>
+      </c>
+      <c r="J17" s="5">
+        <v>176</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" s="9">
+        <v>28</v>
+      </c>
+      <c r="C18" s="10">
+        <v>5</v>
+      </c>
+      <c r="D18" s="10">
+        <v>205</v>
+      </c>
+      <c r="E18" s="9">
+        <v>11620</v>
+      </c>
+      <c r="F18" s="9">
+        <v>1873008</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18" s="12"/>
+      <c r="I18" s="9">
+        <v>1015</v>
+      </c>
+      <c r="J18" s="9">
+        <v>951</v>
+      </c>
+      <c r="K18" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" s="5">
         <v>29</v>
-      </c>
-      <c r="C17" s="6">
-        <v>14</v>
-      </c>
-      <c r="D17" s="6">
-        <v>25</v>
-      </c>
-      <c r="E17" s="5">
-        <v>1856</v>
-      </c>
-      <c r="F17" s="5">
-        <v>86438</v>
-      </c>
-      <c r="G17" s="5">
-        <v>315</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="I17" s="5">
-        <v>23766</v>
-      </c>
-      <c r="J17" s="5">
-        <v>9640</v>
-      </c>
-      <c r="K17" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18" s="5">
-        <v>29</v>
-      </c>
-      <c r="C18" s="6">
-        <v>7</v>
-      </c>
-      <c r="D18" s="6">
-        <v>47</v>
-      </c>
-      <c r="E18" s="5">
-        <v>2929</v>
-      </c>
-      <c r="F18" s="5">
-        <v>161357</v>
-      </c>
-      <c r="G18" s="5">
-        <v>184</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="I18" s="5">
-        <v>39</v>
-      </c>
-      <c r="J18" s="5">
-        <v>30</v>
-      </c>
-      <c r="K18" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19" s="5">
-        <v>30</v>
       </c>
       <c r="C19" s="6">
         <v>14</v>
@@ -1207,33 +1311,33 @@
         <v>25</v>
       </c>
       <c r="E19" s="5">
-        <v>1920</v>
+        <v>1856</v>
       </c>
       <c r="F19" s="5">
-        <v>105942</v>
+        <v>87320</v>
       </c>
       <c r="G19" s="5">
-        <v>358</v>
+        <v>315</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="I19" s="5">
-        <v>128</v>
+        <v>10</v>
+      </c>
+      <c r="I19" s="7">
+        <v>15696</v>
       </c>
       <c r="J19" s="5">
-        <v>128</v>
+        <v>7123</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="B20" s="5">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C20" s="6">
         <v>7</v>
@@ -1242,95 +1346,365 @@
         <v>47</v>
       </c>
       <c r="E20" s="5">
+        <v>2929</v>
+      </c>
+      <c r="F20" s="5">
+        <v>162233</v>
+      </c>
+      <c r="G20" s="5">
+        <v>184</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I20" s="7">
+        <v>26</v>
+      </c>
+      <c r="J20" s="5">
+        <v>10</v>
+      </c>
+      <c r="K20" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B21" s="9">
+        <v>29</v>
+      </c>
+      <c r="C21" s="10">
+        <v>8</v>
+      </c>
+      <c r="D21" s="10">
+        <v>41</v>
+      </c>
+      <c r="E21" s="9">
+        <v>2610</v>
+      </c>
+      <c r="F21" s="9">
+        <v>153774</v>
+      </c>
+      <c r="G21" s="9">
+        <v>194</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I21" s="9">
+        <v>4983</v>
+      </c>
+      <c r="J21" s="9">
+        <v>2986</v>
+      </c>
+      <c r="K21" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22" s="9">
+        <v>29</v>
+      </c>
+      <c r="C22" s="10">
+        <v>11</v>
+      </c>
+      <c r="D22" s="10">
+        <v>33</v>
+      </c>
+      <c r="E22" s="9">
+        <v>2233</v>
+      </c>
+      <c r="F22" s="9">
+        <v>119958</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H22" s="12"/>
+      <c r="I22" s="9">
+        <v>22422</v>
+      </c>
+      <c r="J22" s="9">
+        <v>8958</v>
+      </c>
+      <c r="K22" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B23" s="5">
+        <v>30</v>
+      </c>
+      <c r="C23" s="6">
+        <v>14</v>
+      </c>
+      <c r="D23" s="6">
+        <v>25</v>
+      </c>
+      <c r="E23" s="5">
+        <v>1920</v>
+      </c>
+      <c r="F23" s="5">
+        <v>105942</v>
+      </c>
+      <c r="G23" s="5">
+        <v>358</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I23" s="5">
+        <v>140</v>
+      </c>
+      <c r="J23" s="5">
+        <v>140</v>
+      </c>
+      <c r="K23" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B24" s="5">
+        <v>30</v>
+      </c>
+      <c r="C24" s="6">
+        <v>7</v>
+      </c>
+      <c r="D24" s="6">
+        <v>47</v>
+      </c>
+      <c r="E24" s="5">
         <v>3030</v>
       </c>
-      <c r="F20" s="5">
+      <c r="F24" s="5">
         <v>188048</v>
       </c>
-      <c r="G20" s="5">
+      <c r="G24" s="5">
         <v>192</v>
       </c>
-      <c r="H20" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="I20" s="5">
-        <v>136</v>
-      </c>
-      <c r="J20" s="5">
-        <v>116</v>
-      </c>
-      <c r="K20" s="5" t="s">
+      <c r="H24" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I24" s="7">
+        <v>83</v>
+      </c>
+      <c r="J24" s="5">
+        <v>52</v>
+      </c>
+      <c r="K24" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B25" s="9">
+        <v>30</v>
+      </c>
+      <c r="C25" s="10">
+        <v>8</v>
+      </c>
+      <c r="D25" s="10">
+        <v>41</v>
+      </c>
+      <c r="E25" s="9">
+        <v>2700</v>
+      </c>
+      <c r="F25" s="9">
+        <v>173871</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H25" s="12"/>
+      <c r="I25" s="9">
+        <v>18070</v>
+      </c>
+      <c r="J25" s="9">
+        <v>13307</v>
+      </c>
+      <c r="K25" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B26" s="9">
+        <v>30</v>
+      </c>
+      <c r="C26" s="10">
+        <v>12</v>
+      </c>
+      <c r="D26" s="10">
+        <v>30</v>
+      </c>
+      <c r="E26" s="9">
+        <v>2160</v>
+      </c>
+      <c r="F26" s="9">
+        <v>136897</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H26" s="12"/>
+      <c r="I26" s="9">
+        <v>25118</v>
+      </c>
+      <c r="J26" s="9">
+        <v>15258</v>
+      </c>
+      <c r="K26" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B27" s="5">
+        <v>35</v>
+      </c>
+      <c r="C27" s="6">
+        <v>14</v>
+      </c>
+      <c r="D27" s="6">
+        <v>40</v>
+      </c>
+      <c r="E27" s="5">
+        <v>3290</v>
+      </c>
+      <c r="F27" s="5">
+        <v>260646</v>
+      </c>
+      <c r="G27" s="5">
+        <v>406</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I27" s="7">
+        <v>1</v>
+      </c>
+      <c r="J27" s="5">
+        <v>1</v>
+      </c>
+      <c r="K27" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B28" s="5">
+        <v>35</v>
+      </c>
+      <c r="C28" s="6">
+        <v>9</v>
+      </c>
+      <c r="D28" s="6">
+        <v>54</v>
+      </c>
+      <c r="E28" s="5">
+        <v>4095</v>
+      </c>
+      <c r="F28" s="5">
+        <v>351108</v>
+      </c>
+      <c r="G28" s="5">
+        <v>276</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I28" s="7">
+        <v>96</v>
+      </c>
+      <c r="J28" s="5">
+        <v>73</v>
+      </c>
+      <c r="K28" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B21" s="5">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B29" s="9">
         <v>35</v>
       </c>
-      <c r="C21" s="6">
-        <v>14</v>
-      </c>
-      <c r="D21" s="6">
-        <v>40</v>
-      </c>
-      <c r="E21" s="5">
-        <v>3290</v>
-      </c>
-      <c r="F21" s="5">
-        <v>259699</v>
-      </c>
-      <c r="G21" s="5">
-        <v>406</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="I21" s="5">
-        <v>6</v>
-      </c>
-      <c r="J21" s="5">
-        <v>5</v>
-      </c>
-      <c r="K21" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B22" s="5">
-        <v>35</v>
-      </c>
-      <c r="C22" s="6">
+      <c r="C29" s="10">
         <v>9</v>
       </c>
-      <c r="D22" s="6">
-        <v>54</v>
-      </c>
-      <c r="E22" s="5">
-        <v>4095</v>
-      </c>
-      <c r="F22" s="5">
-        <v>334997</v>
-      </c>
-      <c r="G22" s="5">
-        <v>276</v>
-      </c>
-      <c r="H22" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="I22" s="5">
-        <v>150</v>
-      </c>
-      <c r="J22" s="5">
-        <v>145</v>
-      </c>
-      <c r="K22" s="5" t="s">
-        <v>41</v>
+      <c r="D29" s="10">
+        <v>61</v>
+      </c>
+      <c r="E29" s="9">
+        <v>4585</v>
+      </c>
+      <c r="F29" s="9">
+        <v>512361</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9">
+        <v>16005</v>
+      </c>
+      <c r="J29" s="9">
+        <v>11733</v>
+      </c>
+      <c r="K29" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B30" s="9">
+        <v>58</v>
+      </c>
+      <c r="C30" s="10">
+        <v>25</v>
+      </c>
+      <c r="D30" s="10">
+        <v>65</v>
+      </c>
+      <c r="E30" s="9">
+        <v>8990</v>
+      </c>
+      <c r="F30" s="9">
+        <v>1782931</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H30" s="12"/>
+      <c r="I30" s="9">
+        <v>394</v>
+      </c>
+      <c r="J30" s="9">
+        <v>381</v>
+      </c>
+      <c r="K30" s="9" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
